--- a/biology/Botanique/Dichorisandra/Dichorisandra.xlsx
+++ b/biology/Botanique/Dichorisandra/Dichorisandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dichorisandra est un genre de plantes appartenant à la famille des Commelinaceae comportant 38 espèces, dont deux souvent commercialisées comme plantes ornementales de serre ou d'appartement.
 Dichorisandra reginae
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 Jul 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 Jul 2010) :
 Dichorisandra acaulis Cogn. (1894)
 Dichorisandra alba Seub. &amp; Warm. (1872)
 Dichorisandra amabilis J.R.Grant (2000)
@@ -557,7 +571,7 @@
 Dichorisandra thyrsiflora J.C.Mikan (1820)
 Dichorisandra ulei J.F.Macbr., (1931)
 Dichorisandra villosula Mart. (1830)
-Selon NCBI  (16 Jul 2010)[2] :
+Selon NCBI  (16 Jul 2010) :
 Dichorisandra hexandra
 Dichorisandra thyrsiflora</t>
         </is>
@@ -587,9 +601,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (4 septembre 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (4 septembre 2012) :
 Dichorisandra affinis Mart. , (1830)  = Dichorisandra hexandra (Aubl.) Standl. (1925)
 Dichorisandra albomarginata Linden, (1868) = Tradescantia zanonia  (L.) Sw., (1788)
 Dichorisandra albomarginata var. marginata (Schltdl.) C.B.Clarke ,  (1881) = Dichorisandra hexandra (Aubl.) Standl. (1925)
